--- a/Deploy说明.xlsx
+++ b/Deploy说明.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deploy说明" sheetId="1" r:id="rId1"/>
+    <sheet name="docker-compose.yml" sheetId="2" r:id="rId2"/>
+    <sheet name="Dockerfile" sheetId="3" r:id="rId3"/>
+    <sheet name="Jenkins" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -196,13 +199,532 @@
   <si>
     <t>在宿主机，使用Workbench验证是否可以访问Docker Mysql</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Deploy微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker stop (docker ps -q -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ms-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#停止所有容器名以 ms- 开头的容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#删除所有容器名以 ms- 开头的容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker stop (docker ps -q -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eureka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker stop (docker ps -q -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zuul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker rm (docker ps -aq -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ms-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker rm (docker ps -aq -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eureka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker rm (docker ps -aq -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zuul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#删除所有镜像名以 ms- 开头的镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker rmi (docker images -q --filter=reference='ms-*') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker rmi (docker images -q --filter=reference='eureka') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker rmi (docker images -q --filter=reference='zuul*') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)删除已经存在的微服务容器和镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.如果之前是通过docker compose 进行发布的话，可以cd到docker-compose.yml的文件夹，通过docker compose命令来卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.如果之前不是通过docker compse进行发布的话，需要逐一卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①停止运行中微服务容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②删除微服务容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③删除微服务的镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)使用docker compose 进行Deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.进入docker-compose.yml的文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.使用docker compose命令进行Deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker stop (docker ps -q -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker rm (docker ps -aq -f name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS: mysql的镜像不要删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果进不去，可以试试 /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version: '2'</t>
+  </si>
+  <si>
+    <t>services:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  eureka:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build: ./MidTier/EurekaServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: eureka:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    restart: always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    networks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        extnetwork:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - "9001:9001"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  zuul-gateway:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build: ./MidTier/ZuulGateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: zuul-gateway:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: zuul-gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    depends_on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - "8085:8085"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: mysql:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: mysql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    environment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MYSQL_ROOT_PASSWORD: "123456"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MYSQL_USER: 'emart'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MYSQL_PASS: '123456'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    volumes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - "/D/workspace/docker/mysql/data:/var/lib/mysql"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - "/D/workspace/docker/mysql/config:/etc/mysql/conf.d"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - "3307:3306"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ms-user:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build: ./MidTier/MircroService-User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: ms-user:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: ms-user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         extnetwork:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ms-item:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build: ./MidTier/MircroService-Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: ms-item:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: ms-item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - "/D/workspace/docker/pictures:/mnt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ms-transaction:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build: ./MidTier/MircroService-Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: ms-transaction:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: ms-transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ms-mast:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build: ./MidTier/MircroService-Mast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: ms-mast:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: ms-mast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ipv4_address: 172.99.0.8</t>
+  </si>
+  <si>
+    <t>networks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   extnetwork:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ipam:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         config:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - subnet: 172.99.0.0/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           gateway: 172.99.0.1</t>
+  </si>
+  <si>
+    <t>docker-compose.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM java:8-alpine</t>
+  </si>
+  <si>
+    <t>ADD ./target/EurekaServer-0.0.1-SNAPSHOT.jar app.jar</t>
+  </si>
+  <si>
+    <t>EXPOSE 9001</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT ["java","-jar","/app.jar"]</t>
+  </si>
+  <si>
+    <t>node {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def workspace = 'D:\\workspace\\Jenkins'</t>
+  </si>
+  <si>
+    <t>stage('git clone') { // for display purposes</t>
+  </si>
+  <si>
+    <t>dir("${workspace}") {</t>
+  </si>
+  <si>
+    <t>checkout([$class: 'GitSCM', branches: [[name: '*/master']], doGenerateSubmoduleConfigurations: false, extensions: [], submoduleCfg: [], userRemoteConfigs: [[credentialsId: 'ginge', url: 'https://github.com/ginge0615/eMark.git']]])</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>stage('Build') {</t>
+  </si>
+  <si>
+    <t>withMaven(jdk: 'jdk1.8_202', maven: 'maven') {</t>
+  </si>
+  <si>
+    <t>dir("${workspace}\\MidTier\\EurekaServer") {</t>
+  </si>
+  <si>
+    <t>bat script: 'mvn clean package -Dmaven.test.skip=true'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +770,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -275,14 +813,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1470,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW153"/>
+  <dimension ref="A1:BW218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,7 +2044,7 @@
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1539,155 +2080,155 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
@@ -1701,21 +2242,21 @@
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
     </row>
     <row r="114" spans="1:75" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
@@ -1726,205 +2267,205 @@
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-      <c r="AF115" s="3"/>
-      <c r="AG115" s="3"/>
-      <c r="AH115" s="3"/>
-      <c r="AI115" s="3"/>
-      <c r="AJ115" s="3"/>
-      <c r="AK115" s="3"/>
-      <c r="AL115" s="3"/>
-      <c r="AM115" s="3"/>
-      <c r="AN115" s="3"/>
-      <c r="AO115" s="3"/>
-      <c r="AP115" s="3"/>
-      <c r="AQ115" s="3"/>
-      <c r="AR115" s="3"/>
-      <c r="AS115" s="3"/>
-      <c r="AT115" s="3"/>
-      <c r="AU115" s="3"/>
-      <c r="AV115" s="3"/>
-      <c r="AW115" s="3"/>
-      <c r="AX115" s="3"/>
-      <c r="AY115" s="3"/>
-      <c r="AZ115" s="3"/>
-      <c r="BA115" s="3"/>
-      <c r="BB115" s="3"/>
-      <c r="BC115" s="3"/>
-      <c r="BD115" s="3"/>
-      <c r="BE115" s="3"/>
-      <c r="BF115" s="3"/>
-      <c r="BG115" s="3"/>
-      <c r="BH115" s="3"/>
-      <c r="BI115" s="3"/>
-      <c r="BJ115" s="3"/>
-      <c r="BK115" s="3"/>
-      <c r="BL115" s="3"/>
-      <c r="BM115" s="3"/>
-      <c r="BN115" s="3"/>
-      <c r="BO115" s="3"/>
-      <c r="BP115" s="3"/>
-      <c r="BQ115" s="3"/>
-      <c r="BR115" s="3"/>
-      <c r="BS115" s="3"/>
-      <c r="BT115" s="3"/>
-      <c r="BU115" s="3"/>
-      <c r="BV115" s="3"/>
-      <c r="BW115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4"/>
+      <c r="AE115" s="4"/>
+      <c r="AF115" s="4"/>
+      <c r="AG115" s="4"/>
+      <c r="AH115" s="4"/>
+      <c r="AI115" s="4"/>
+      <c r="AJ115" s="4"/>
+      <c r="AK115" s="4"/>
+      <c r="AL115" s="4"/>
+      <c r="AM115" s="4"/>
+      <c r="AN115" s="4"/>
+      <c r="AO115" s="4"/>
+      <c r="AP115" s="4"/>
+      <c r="AQ115" s="4"/>
+      <c r="AR115" s="4"/>
+      <c r="AS115" s="4"/>
+      <c r="AT115" s="4"/>
+      <c r="AU115" s="4"/>
+      <c r="AV115" s="4"/>
+      <c r="AW115" s="4"/>
+      <c r="AX115" s="4"/>
+      <c r="AY115" s="4"/>
+      <c r="AZ115" s="4"/>
+      <c r="BA115" s="4"/>
+      <c r="BB115" s="4"/>
+      <c r="BC115" s="4"/>
+      <c r="BD115" s="4"/>
+      <c r="BE115" s="4"/>
+      <c r="BF115" s="4"/>
+      <c r="BG115" s="4"/>
+      <c r="BH115" s="4"/>
+      <c r="BI115" s="4"/>
+      <c r="BJ115" s="4"/>
+      <c r="BK115" s="4"/>
+      <c r="BL115" s="4"/>
+      <c r="BM115" s="4"/>
+      <c r="BN115" s="4"/>
+      <c r="BO115" s="4"/>
+      <c r="BP115" s="4"/>
+      <c r="BQ115" s="4"/>
+      <c r="BR115" s="4"/>
+      <c r="BS115" s="4"/>
+      <c r="BT115" s="4"/>
+      <c r="BU115" s="4"/>
+      <c r="BV115" s="4"/>
+      <c r="BW115" s="4"/>
     </row>
     <row r="117" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C117" s="4"/>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
     </row>
     <row r="118" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="5" t="s">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="AA118" s="4" t="s">
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="AA118" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="5" t="s">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="AA119" s="4" t="s">
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="AA119" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="5" t="s">
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
       <c r="AA120" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="5" t="s">
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
       <c r="AA121" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4" t="s">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
       <c r="AA122" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:75" x14ac:dyDescent="0.15">
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="5" t="s">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
       <c r="AA123" t="s">
         <v>36</v>
       </c>
@@ -1941,6 +2482,9 @@
       <c r="AG127" t="s">
         <v>42</v>
       </c>
+      <c r="AM127" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="128" spans="1:75" x14ac:dyDescent="0.15">
       <c r="D128" t="s">
@@ -1973,6 +2517,389 @@
       <c r="D153" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B190" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D192" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+    </row>
+    <row r="194" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D195" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D196" s="8"/>
+      <c r="E196" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="AB196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D197" s="8"/>
+      <c r="E197" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+    </row>
+    <row r="198" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D198" s="8"/>
+      <c r="E198" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+    </row>
+    <row r="199" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D199" s="8"/>
+      <c r="E199" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+    </row>
+    <row r="200" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D200" s="8"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+    </row>
+    <row r="201" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D201" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D202" s="8"/>
+      <c r="E202" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="AB202" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D203" s="8"/>
+      <c r="E203" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+    </row>
+    <row r="204" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D204" s="8"/>
+      <c r="E204" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+    </row>
+    <row r="205" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D205" s="8"/>
+      <c r="E205" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+    </row>
+    <row r="206" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D207" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D208" s="1"/>
+      <c r="E208" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
+      <c r="Z208" s="4"/>
+      <c r="AB208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="D209" s="1"/>
+      <c r="E209" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+      <c r="X209" s="4"/>
+      <c r="Y209" s="4"/>
+      <c r="Z209" s="4"/>
+    </row>
+    <row r="210" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="D210" s="1"/>
+      <c r="E210" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="4"/>
+      <c r="Y210" s="4"/>
+      <c r="Z210" s="4"/>
+    </row>
+    <row r="212" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="E212" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+    </row>
+    <row r="214" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B214" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C215" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C217" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="E218" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1980,4 +2907,1107 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B88" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B89" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B90" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B91" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B92" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="7" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>